--- a/r5-LinkedCare-dev/StructureDefinition-linca-order-task.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-order-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-19T09:14:41+00:00</t>
+    <t>2023-06-21T13:25:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-order-task.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-order-task.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-21T13:25:12+00:00</t>
+    <t>2023-06-21T13:54:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
